--- a/xlsx/互联网服务提供商_intext.xlsx
+++ b/xlsx/互联网服务提供商_intext.xlsx
@@ -29,7 +29,7 @@
     <t>en-Internet service provider</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_互联网服务提供商</t>
+    <t>政策_政策_维基百科_互联网服务提供商</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A5%E5%8F%A3%E9%9A%94%E7%A6%BB%E5%8E%9F%E5%88%99</t>
@@ -41,25 +41,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%AF%E7%B6%B2</t>
   </si>
   <si>
-    <t>互聯網</t>
+    <t>互联网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF%E5%AD%98%E5%8F%96</t>
   </si>
   <si>
-    <t>網路存取</t>
+    <t>网路存取</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A8%8A%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>電訊公司</t>
+    <t>电讯公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%92%A5%E8%99%9F%E9%80%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>撥號連線</t>
+    <t>拨号连线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ADSL</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E7%BA%96</t>
   </si>
   <si>
-    <t>光纖</t>
+    <t>光纤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E5%8B%95%E7%B6%B2%E7%B5%A1</t>
   </si>
   <si>
-    <t>流動網絡</t>
+    <t>流动网络</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%9F%E5%90%8D</t>
@@ -95,13 +95,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%A0%81%E5%AF%84%E5%AD%98%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>網頁寄存服務</t>
+    <t>网页寄存服务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%A9%9F%E6%89%98%E7%AE%A1</t>
   </si>
   <si>
-    <t>主機托管</t>
+    <t>主机托管</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%BC%E5%90%88%E4%B8%9A%E5%8A%A1%E6%95%B0%E5%AD%97%E7%BD%91</t>
@@ -119,19 +119,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%9C%E7%B7%9A%E6%95%B8%E6%93%9A%E6%A9%9F</t>
   </si>
   <si>
-    <t>纜線數據機</t>
+    <t>缆线数据机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E7%B7%9A</t>
   </si>
   <si>
-    <t>專線</t>
+    <t>专线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8A%9B%E7%B7%9A%E9%80%9A%E4%BF%A1</t>
   </si>
   <si>
-    <t>電力線通信</t>
+    <t>电力线通信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WiMAX</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E9%83%B5%E4%BB%B6</t>
   </si>
   <si>
-    <t>電子郵件</t>
+    <t>电子邮件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%9F%E5%90%8D%E7%B3%BB%E7%BB%9F</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B2%E7%AB%AF%E9%81%8B%E7%AE%97</t>
   </si>
   <si>
-    <t>雲端運算</t>
+    <t>云端运算</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91%E6%9C%8D%E5%8A%A1%E4%BE%9B%E5%BA%94%E5%95%86</t>
